--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325556.3918026246</v>
+        <v>388611.9305032946</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3842442.348868397</v>
+        <v>5530772.757762743</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10498891.9951863</v>
+        <v>12153624.62894365</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8698202.045674903</v>
+        <v>7792903.264408386</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>45.29565261498494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>317.2755922290668</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>70.02631374670425</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>255.0853779233022</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>43.4408998795731</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>73.53891255273932</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>193.7787769293047</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>70.02631374670447</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.0795744269807</v>
+        <v>255.0853779233023</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>22.207470287926</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>99.90681807664345</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815132</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.5125466328466</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>191.442026261026</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>92.18289993320529</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.88391362015297</v>
       </c>
       <c r="G17" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459915</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
         <v>195.0194028815133</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>86.31513217715504</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>79.13107494872601</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>113.9923382385743</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.6860728229079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>189.4127584730248</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>204.625977404588</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>131.8105136448999</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>211.7857997499445</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>124.3978206877608</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>198.2765052151647</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>18.60084915099488</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>180.8863211448342</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>298.0705583145525</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
@@ -2812,7 +2812,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>111.6093896216457</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>227.9017882635736</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.2972533038402</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>266.5553136654509</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>204.6259774045885</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>130.8463280377345</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.22623797673976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>103.0456729512702</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>412.9169039459368</v>
@@ -3319,22 +3319,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>53.90345055048461</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>191.442026261026</v>
       </c>
       <c r="U37" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>228.1641319420677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>132.1606105521545</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>361.8898422058649</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S39" t="n">
-        <v>147.9721212459915</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T39" t="n">
         <v>195.0194028815133</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>44.35719926835262</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>367.3761939572173</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>61.44251898056581</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>207.9804056878767</v>
+        <v>84.07456661402519</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9169039459368</v>
+        <v>182.6202703992002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>153.5717124362219</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>11.61004607908881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>91.89865344519471</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V3" t="n">
-        <v>526.7184526376595</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>283.2696759935595</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>75.41817578802664</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512.8480801015824</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="C6" t="n">
-        <v>338.3950508204554</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="D6" t="n">
-        <v>338.3950508204554</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E6" t="n">
-        <v>179.1575958149999</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F6" t="n">
-        <v>179.1575958149999</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="Y6" t="n">
-        <v>512.8480801015824</v>
+        <v>93.44061023954541</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X9" t="n">
-        <v>156.0631229240681</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y9" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>848.882703973743</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="C11" t="n">
-        <v>848.882703973743</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="D11" t="n">
-        <v>490.6170053669925</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="E11" t="n">
-        <v>490.6170053669925</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="F11" t="n">
-        <v>490.6170053669925</v>
+        <v>348.8024783853859</v>
       </c>
       <c r="G11" t="n">
-        <v>490.6170053669925</v>
+        <v>91.1404804830604</v>
       </c>
       <c r="H11" t="n">
-        <v>172.393890139502</v>
+        <v>91.1404804830604</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J11" t="n">
-        <v>241.3408185533492</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K11" t="n">
-        <v>644.8079315733946</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L11" t="n">
-        <v>784.1365874146478</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M11" t="n">
-        <v>970.8360002400555</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N11" t="n">
-        <v>1413.39376509937</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O11" t="n">
-        <v>1960.554969866447</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P11" t="n">
-        <v>2389.870016205742</v>
+        <v>925.4698669269691</v>
       </c>
       <c r="Q11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.830939477471</v>
+        <v>864.126474190037</v>
       </c>
       <c r="T11" t="n">
-        <v>2264.031077745182</v>
+        <v>864.126474190037</v>
       </c>
       <c r="U11" t="n">
-        <v>2264.031077745182</v>
+        <v>864.126474190037</v>
       </c>
       <c r="V11" t="n">
-        <v>1932.968190401611</v>
+        <v>864.126474190037</v>
       </c>
       <c r="W11" t="n">
-        <v>1932.968190401611</v>
+        <v>864.126474190037</v>
       </c>
       <c r="X11" t="n">
-        <v>1559.502432140531</v>
+        <v>864.126474190037</v>
       </c>
       <c r="Y11" t="n">
-        <v>1169.36310016472</v>
+        <v>606.4644762877115</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662187</v>
+        <v>343.7942691762424</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850917</v>
+        <v>169.3412398951155</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238404</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K12" t="n">
-        <v>382.1293238454227</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L12" t="n">
-        <v>886.4908637115414</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M12" t="n">
-        <v>1065.988200066146</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.928743686615</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.364752439338</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>997.604570491232</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R12" t="n">
-        <v>2613.934077382829</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.467288245464</v>
+        <v>849.7628229580305</v>
       </c>
       <c r="T12" t="n">
-        <v>2267.477992405552</v>
+        <v>849.7628229580305</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>849.7628229580305</v>
       </c>
       <c r="V12" t="n">
-        <v>1804.187096684975</v>
+        <v>849.7628229580305</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956773</v>
+        <v>595.5254662298289</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.09823975124</v>
+        <v>387.6739660242961</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>387.6739660242961</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961285</v>
+        <v>708.2150855823719</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961285</v>
+        <v>633.9333557311201</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961285</v>
+        <v>483.8167163187843</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>335.9036227363912</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L13" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M13" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N13" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O13" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P13" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R13" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="T13" t="n">
-        <v>827.0064043113226</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="U13" t="n">
-        <v>537.8542278890025</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="V13" t="n">
-        <v>342.1180895765735</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="W13" t="n">
-        <v>52.70091953961285</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961285</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961285</v>
+        <v>889.8635504126116</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1249.737123033205</v>
+        <v>348.8024783853862</v>
       </c>
       <c r="C14" t="n">
-        <v>880.774606092793</v>
+        <v>348.8024783853862</v>
       </c>
       <c r="D14" t="n">
-        <v>880.774606092793</v>
+        <v>91.14048048306063</v>
       </c>
       <c r="E14" t="n">
-        <v>880.774606092793</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F14" t="n">
-        <v>469.7887013031854</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J14" t="n">
-        <v>73.93516953299616</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K14" t="n">
-        <v>477.4022825530416</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L14" t="n">
-        <v>1030.215540799241</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M14" t="n">
-        <v>1373.270117242947</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N14" t="n">
-        <v>2000.577785302793</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O14" t="n">
-        <v>2170.746810619753</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P14" t="n">
-        <v>2600.061856959047</v>
+        <v>985.357391671614</v>
       </c>
       <c r="Q14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="T14" t="n">
-        <v>2420.246115248354</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="U14" t="n">
-        <v>2420.246115248354</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="V14" t="n">
-        <v>2089.183227904783</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="W14" t="n">
-        <v>1736.414572634669</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="X14" t="n">
-        <v>1362.948814373589</v>
+        <v>606.4644762877117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1249.737123033205</v>
+        <v>348.8024783853862</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>644.365875908187</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>621.9340877385648</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238404</v>
+        <v>472.9996780773136</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183849</v>
+        <v>313.7622230718581</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452699</v>
+        <v>167.2276650987431</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>167.2276650987431</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929637</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K15" t="n">
-        <v>382.1293238454227</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L15" t="n">
-        <v>886.4908637115414</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M15" t="n">
-        <v>1065.988200066146</v>
+        <v>477.7787720569844</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686615</v>
+        <v>676.4355137096491</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.364752439338</v>
+        <v>835.9478263784097</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>997.6045704912322</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.467288245464</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T15" t="n">
-        <v>2267.477992405552</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V15" t="n">
-        <v>1804.187096684975</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>812.5812129282551</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>189.0136752384808</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L16" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M16" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N16" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O16" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P16" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T16" t="n">
-        <v>1052.635600998958</v>
+        <v>849.1167171145762</v>
       </c>
       <c r="U16" t="n">
-        <v>763.4834245766374</v>
+        <v>849.1167171145762</v>
       </c>
       <c r="V16" t="n">
-        <v>570.1076404745909</v>
+        <v>849.1167171145762</v>
       </c>
       <c r="W16" t="n">
-        <v>280.6904704376302</v>
+        <v>591.4547192122507</v>
       </c>
       <c r="X16" t="n">
-        <v>52.70091953961285</v>
+        <v>591.4547192122507</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.70091953961285</v>
+        <v>370.6621400687205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>562.9027416397564</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="C17" t="n">
-        <v>469.7887013031854</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="D17" t="n">
-        <v>469.7887013031854</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="E17" t="n">
-        <v>469.7887013031854</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="F17" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>76.07976811573525</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733946</v>
+        <v>479.5468811357807</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.621189819594</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.320602645002</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N17" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O17" t="n">
         <v>1960.554969866447</v>
@@ -5560,7 +5560,7 @@
         <v>953.0420736155681</v>
       </c>
       <c r="Y17" t="n">
-        <v>562.9027416397564</v>
+        <v>953.0420736155681</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K18" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L18" t="n">
-        <v>886.4908637115414</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M18" t="n">
-        <v>1232.27200203395</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N18" t="n">
         <v>1430.928743686615</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.9176547334882</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C19" t="n">
-        <v>437.9176547334882</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D19" t="n">
-        <v>287.8010153211525</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E19" t="n">
-        <v>139.8879217387594</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>139.8879217387594</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
         <v>52.70091953961285</v>
@@ -5700,25 +5700,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V19" t="n">
-        <v>619.566119563728</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W19" t="n">
-        <v>619.566119563728</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X19" t="n">
-        <v>619.566119563728</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y19" t="n">
-        <v>619.566119563728</v>
+        <v>200.614013122006</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1249.737123033205</v>
+        <v>1349.814732570547</v>
       </c>
       <c r="C20" t="n">
-        <v>880.774606092793</v>
+        <v>1349.814732570547</v>
       </c>
       <c r="D20" t="n">
-        <v>880.774606092793</v>
+        <v>991.5490339637968</v>
       </c>
       <c r="E20" t="n">
-        <v>880.774606092793</v>
+        <v>605.7607813655525</v>
       </c>
       <c r="F20" t="n">
-        <v>469.7887013031854</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G20" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H20" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>241.3408185533492</v>
+        <v>159.8339318009045</v>
       </c>
       <c r="K20" t="n">
-        <v>644.8079315733946</v>
+        <v>563.30104482095</v>
       </c>
       <c r="L20" t="n">
-        <v>1197.621189819594</v>
+        <v>1116.114303067149</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.320602645002</v>
+        <v>1747.832114050461</v>
       </c>
       <c r="N20" t="n">
-        <v>1790.385944549488</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O20" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P20" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U20" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V20" t="n">
-        <v>2264.031077745182</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W20" t="n">
-        <v>2264.031077745182</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="X20" t="n">
-        <v>1890.565319484102</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="Y20" t="n">
-        <v>1636.336963097326</v>
+        <v>1736.414572634669</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I21" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K21" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1265.215628536193</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N21" t="n">
-        <v>1917.389507838902</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
-        <v>2575.515144118924</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q21" t="n">
         <v>2635.045976980643</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.70091953961285</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G22" t="n">
         <v>52.70091953961285</v>
@@ -5943,19 +5943,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V22" t="n">
-        <v>508.7989363707505</v>
+        <v>861.3095823393367</v>
       </c>
       <c r="W22" t="n">
-        <v>219.3817663337899</v>
+        <v>571.8924123023761</v>
       </c>
       <c r="X22" t="n">
-        <v>52.70091953961285</v>
+        <v>571.8924123023761</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.70091953961285</v>
+        <v>571.8924123023761</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.915039876383</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="C23" t="n">
-        <v>821.9525229359709</v>
+        <v>1744.521527897677</v>
       </c>
       <c r="D23" t="n">
-        <v>463.6868243292204</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E23" t="n">
-        <v>463.6868243292204</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F23" t="n">
-        <v>52.70091953961285</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G23" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H23" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I23" t="n">
         <v>52.70091953961285</v>
@@ -5998,16 +5998,16 @@
         <v>709.3115823537878</v>
       </c>
       <c r="M23" t="n">
-        <v>1314.858658882597</v>
+        <v>896.0109951791954</v>
       </c>
       <c r="N23" t="n">
-        <v>1942.166326942443</v>
+        <v>1523.318663239042</v>
       </c>
       <c r="O23" t="n">
-        <v>2489.327531709521</v>
+        <v>2070.479868006119</v>
       </c>
       <c r="P23" t="n">
-        <v>2600.061856959047</v>
+        <v>2499.794914345414</v>
       </c>
       <c r="Q23" t="n">
         <v>2635.045976980643</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2501.904044005996</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U23" t="n">
-        <v>2248.212340751147</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V23" t="n">
-        <v>1917.149453407577</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W23" t="n">
-        <v>1564.380798137463</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X23" t="n">
-        <v>1190.915039876383</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y23" t="n">
-        <v>1190.915039876383</v>
+        <v>1951.214434366958</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D24" t="n">
         <v>642.7351650238404</v>
@@ -6068,25 +6068,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K24" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L24" t="n">
-        <v>886.4908637115414</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M24" t="n">
-        <v>1527.036213178646</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.692954831311</v>
+        <v>1582.531622045753</v>
       </c>
       <c r="O24" t="n">
-        <v>2275.128963584034</v>
+        <v>2131.967630798476</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.309035778665</v>
+        <v>2555.935399279313</v>
       </c>
       <c r="Q24" t="n">
         <v>2635.045976980643</v>
@@ -6107,10 +6107,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y24" t="n">
         <v>1134.337940986287</v>
@@ -6174,19 +6174,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S25" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>845.195316251363</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="U25" t="n">
-        <v>556.0431398290427</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V25" t="n">
-        <v>342.1180895765735</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W25" t="n">
-        <v>52.70091953961285</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X25" t="n">
         <v>52.70091953961285</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1165.717387685019</v>
+        <v>421.6634364800246</v>
       </c>
       <c r="C26" t="n">
-        <v>796.7548707446076</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D26" t="n">
-        <v>438.4891721378571</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E26" t="n">
         <v>52.70091953961286</v>
@@ -6226,25 +6226,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K26" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>1030.215540799241</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M26" t="n">
-        <v>1216.914953624649</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N26" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P26" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2478.830939477471</v>
+        <v>2509.391612649571</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.830939477471</v>
+        <v>2509.391612649571</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.830939477471</v>
+        <v>2255.699909394722</v>
       </c>
       <c r="V26" t="n">
-        <v>2278.551641280335</v>
+        <v>1924.637022051152</v>
       </c>
       <c r="W26" t="n">
-        <v>1925.782986010221</v>
+        <v>1571.868366781038</v>
       </c>
       <c r="X26" t="n">
-        <v>1552.317227749141</v>
+        <v>1198.402608519958</v>
       </c>
       <c r="Y26" t="n">
-        <v>1552.317227749141</v>
+        <v>808.2632765441464</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L27" t="n">
-        <v>1005.150115568437</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M27" t="n">
-        <v>1232.272002033951</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.928743686616</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439339</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980643</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>688.2736804668652</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="C28" t="n">
-        <v>519.3374975389584</v>
+        <v>366.2926971360728</v>
       </c>
       <c r="D28" t="n">
-        <v>369.2208581266226</v>
+        <v>366.2926971360728</v>
       </c>
       <c r="E28" t="n">
-        <v>221.3077645442295</v>
+        <v>218.3796035536797</v>
       </c>
       <c r="F28" t="n">
-        <v>221.3077645442295</v>
+        <v>71.4896560557693</v>
       </c>
       <c r="G28" t="n">
         <v>52.70091953961286</v>
@@ -6423,13 +6423,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W28" t="n">
-        <v>869.922145297105</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X28" t="n">
-        <v>869.922145297105</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y28" t="n">
-        <v>869.922145297105</v>
+        <v>535.2288800639797</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.748676105878</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.786159165467</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="D29" t="n">
-        <v>1208.786159165467</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E29" t="n">
-        <v>907.7047871305651</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F29" t="n">
-        <v>907.7047871305651</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G29" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H29" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I29" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K29" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L29" t="n">
-        <v>741.5523062596357</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M29" t="n">
-        <v>1373.270117242947</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N29" t="n">
-        <v>2000.577785302794</v>
+        <v>1610.188611289942</v>
       </c>
       <c r="O29" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P29" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6493,22 +6493,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2522.309219787061</v>
       </c>
       <c r="U29" t="n">
-        <v>2635.045976980643</v>
+        <v>2268.617516532212</v>
       </c>
       <c r="V29" t="n">
-        <v>2303.983089637072</v>
+        <v>1937.554629188642</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.214434366958</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="X29" t="n">
-        <v>1577.748676105878</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="Y29" t="n">
-        <v>1577.748676105878</v>
+        <v>1584.785973918528</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I30" t="n">
         <v>52.70091953961286</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.1636279647756</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C31" t="n">
-        <v>666.2274450368687</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D31" t="n">
-        <v>516.110805624533</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E31" t="n">
-        <v>368.1977120421399</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F31" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G31" t="n">
         <v>52.70091953961286</v>
@@ -6651,22 +6651,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>1052.635600998958</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V31" t="n">
-        <v>1052.635600998958</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W31" t="n">
-        <v>1052.635600998958</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X31" t="n">
-        <v>835.1636279647756</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.1636279647756</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1744.521527897677</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="C32" t="n">
-        <v>1744.521527897677</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D32" t="n">
-        <v>1386.255829290926</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E32" t="n">
-        <v>1000.467576692682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F32" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H32" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I32" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J32" t="n">
-        <v>76.0797681157357</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K32" t="n">
-        <v>479.5468811357812</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M32" t="n">
-        <v>1219.059552207388</v>
+        <v>1429.251392960694</v>
       </c>
       <c r="N32" t="n">
-        <v>1413.39376509937</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866448</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P32" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2428.353070511362</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V32" t="n">
-        <v>2097.290183167791</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W32" t="n">
-        <v>1744.521527897677</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X32" t="n">
-        <v>1744.521527897677</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="Y32" t="n">
-        <v>1744.521527897677</v>
+        <v>1894.076348879051</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I33" t="n">
         <v>52.70091953961286</v>
@@ -6782,16 +6782,16 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.150115568437</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M33" t="n">
-        <v>1184.647451923042</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N33" t="n">
-        <v>1430.928743686616</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O33" t="n">
         <v>1980.364752439339</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.70091953961286</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C34" t="n">
-        <v>52.70091953961286</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D34" t="n">
         <v>52.70091953961286</v>
@@ -6888,22 +6888,22 @@
         <v>845.195316251363</v>
       </c>
       <c r="T34" t="n">
-        <v>619.566119563728</v>
+        <v>713.0273081324393</v>
       </c>
       <c r="U34" t="n">
-        <v>330.4139431414077</v>
+        <v>713.0273081324393</v>
       </c>
       <c r="V34" t="n">
-        <v>330.4139431414077</v>
+        <v>713.0273081324393</v>
       </c>
       <c r="W34" t="n">
-        <v>330.4139431414077</v>
+        <v>423.6101380954787</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4243922433904</v>
+        <v>423.6101380954787</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.70091953961286</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1624.828557297788</v>
+        <v>1328.626009176458</v>
       </c>
       <c r="C35" t="n">
-        <v>1624.828557297788</v>
+        <v>959.6634922360461</v>
       </c>
       <c r="D35" t="n">
-        <v>1266.562858691037</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E35" t="n">
-        <v>880.774606092793</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F35" t="n">
         <v>469.7887013031854</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>411.5206624279944</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L35" t="n">
-        <v>964.3339206741936</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M35" t="n">
-        <v>1596.051731657505</v>
+        <v>1163.078276489642</v>
       </c>
       <c r="N35" t="n">
         <v>1790.385944549488</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P35" t="n">
         <v>2389.870016205742</v>
@@ -6967,22 +6967,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V35" t="n">
-        <v>1679.276487146762</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W35" t="n">
-        <v>1624.828557297788</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X35" t="n">
-        <v>1624.828557297788</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y35" t="n">
-        <v>1624.828557297788</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="36">
@@ -7007,40 +7007,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J36" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K36" t="n">
-        <v>208.9564317595983</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>346.1860297752922</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M36" t="n">
-        <v>986.7313792423969</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N36" t="n">
-        <v>1638.905258545106</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7125,22 +7125,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>827.0064043113226</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="U37" t="n">
-        <v>537.8542278890025</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V37" t="n">
-        <v>283.1697396831156</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W37" t="n">
-        <v>52.70091953961285</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>828.0543999099359</v>
+        <v>1108.765490715616</v>
       </c>
       <c r="C38" t="n">
-        <v>828.0543999099359</v>
+        <v>975.2699245013189</v>
       </c>
       <c r="D38" t="n">
-        <v>469.7887013031854</v>
+        <v>975.2699245013189</v>
       </c>
       <c r="E38" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F38" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G38" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H38" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L38" t="n">
-        <v>784.1365874146478</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M38" t="n">
-        <v>970.8360002400555</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7204,22 +7204,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2264.031077745182</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V38" t="n">
-        <v>1932.968190401611</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W38" t="n">
-        <v>1580.199535131497</v>
+        <v>1872.370580952508</v>
       </c>
       <c r="X38" t="n">
-        <v>1214.654239974058</v>
+        <v>1498.904822691428</v>
       </c>
       <c r="Y38" t="n">
-        <v>1214.654239974058</v>
+        <v>1108.765490715616</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7244,40 +7244,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K39" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L39" t="n">
-        <v>886.4908637115414</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M39" t="n">
-        <v>1527.036213178646</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.206884640153</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O39" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P39" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961285</v>
+        <v>542.4258518184669</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961285</v>
+        <v>542.4258518184669</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961285</v>
+        <v>392.3092124061311</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961285</v>
+        <v>244.396118823738</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961285</v>
+        <v>97.50617132582764</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7365,19 +7365,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U40" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V40" t="n">
-        <v>508.7989363707505</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W40" t="n">
-        <v>219.3817663337899</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X40" t="n">
-        <v>52.70091953961285</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961285</v>
+        <v>542.4258518184669</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1266.562858691037</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="C41" t="n">
-        <v>1266.562858691037</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="D41" t="n">
-        <v>1266.562858691037</v>
+        <v>809.5762367411069</v>
       </c>
       <c r="E41" t="n">
-        <v>880.774606092793</v>
+        <v>423.7879841428626</v>
       </c>
       <c r="F41" t="n">
-        <v>469.7887013031854</v>
+        <v>423.7879841428626</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
         <v>241.3408185533492</v>
@@ -7417,19 +7417,19 @@
         <v>323.9039731279416</v>
       </c>
       <c r="L41" t="n">
-        <v>876.7172313741407</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M41" t="n">
-        <v>1063.416644199549</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N41" t="n">
-        <v>1690.724312259395</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7444,19 +7444,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V41" t="n">
-        <v>2416.767788992051</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W41" t="n">
-        <v>2416.767788992051</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X41" t="n">
-        <v>2043.302030730971</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="Y41" t="n">
-        <v>1653.162698755159</v>
+        <v>1167.841935347857</v>
       </c>
     </row>
     <row r="42">
@@ -7481,40 +7481,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K42" t="n">
-        <v>120.3087392029699</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L42" t="n">
-        <v>624.6702790690885</v>
+        <v>376.1975890755595</v>
       </c>
       <c r="M42" t="n">
-        <v>1265.215628536193</v>
+        <v>778.7548643839066</v>
       </c>
       <c r="N42" t="n">
-        <v>1917.389507838902</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O42" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S42" t="n">
         <v>2464.467288245464</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>371.7537418798555</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C43" t="n">
         <v>202.8175589519486</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7602,19 +7602,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U43" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V43" t="n">
-        <v>763.4834245766374</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W43" t="n">
-        <v>763.4834245766374</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X43" t="n">
-        <v>553.4022067100952</v>
+        <v>423.6101380954787</v>
       </c>
       <c r="Y43" t="n">
-        <v>553.4022067100952</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1249.737123033205</v>
+        <v>1761.168212069779</v>
       </c>
       <c r="C44" t="n">
-        <v>880.774606092793</v>
+        <v>1392.205695129367</v>
       </c>
       <c r="D44" t="n">
-        <v>880.774606092793</v>
+        <v>1033.939996522616</v>
       </c>
       <c r="E44" t="n">
-        <v>880.774606092793</v>
+        <v>648.1517439243721</v>
       </c>
       <c r="F44" t="n">
-        <v>469.7887013031854</v>
+        <v>237.1658391347646</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L44" t="n">
-        <v>1197.621189819594</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M44" t="n">
-        <v>1829.339000802906</v>
+        <v>1104.666818129292</v>
       </c>
       <c r="N44" t="n">
-        <v>2023.673213694888</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O44" t="n">
-        <v>2193.842239011848</v>
+        <v>2279.135690956216</v>
       </c>
       <c r="P44" t="n">
         <v>2389.870016205742</v>
@@ -7678,22 +7678,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2323.707997622701</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2323.707997622701</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V44" t="n">
-        <v>1992.64511027913</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W44" t="n">
-        <v>1639.876455009016</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="X44" t="n">
-        <v>1639.876455009016</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="Y44" t="n">
-        <v>1249.737123033205</v>
+        <v>2147.7680521339</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C45" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D45" t="n">
         <v>642.7351650238404</v>
@@ -7718,40 +7718,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>295.3416275592179</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L45" t="n">
-        <v>799.7031674253365</v>
+        <v>528.1332110007643</v>
       </c>
       <c r="M45" t="n">
-        <v>1440.248516892441</v>
+        <v>1168.678560467869</v>
       </c>
       <c r="N45" t="n">
-        <v>1638.905258545106</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
         <v>2464.467288245464</v>
@@ -7766,10 +7766,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X45" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y45" t="n">
         <v>1134.337940986287</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.42823881141973</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C46" t="n">
-        <v>64.42823881141973</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D46" t="n">
-        <v>64.42823881141973</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E46" t="n">
-        <v>64.42823881141973</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
         <v>153.7488491352227</v>
@@ -7842,16 +7842,16 @@
         <v>763.4834245766374</v>
       </c>
       <c r="V46" t="n">
-        <v>763.4834245766374</v>
+        <v>670.6565019047235</v>
       </c>
       <c r="W46" t="n">
-        <v>474.0662545396768</v>
+        <v>381.2393318677629</v>
       </c>
       <c r="X46" t="n">
-        <v>246.0767036416594</v>
+        <v>381.2393318677629</v>
       </c>
       <c r="Y46" t="n">
-        <v>246.0767036416594</v>
+        <v>381.2393318677629</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>60.49244923701495</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,25 +8771,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>127.2770751262504</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>157.9345087053519</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>60.49244923701499</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>73.7749371610752</v>
       </c>
       <c r="N15" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>53.50213796517539</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>2.166261194685955</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>213.8698272853573</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>418.9459514760943</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>86.76642653324076</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,22 +9409,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>213.8698272853573</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.16554713105241</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>423.078448185254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,10 +9655,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>56.94306717106312</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="N26" t="n">
-        <v>214.4812518545909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>48.10560617263553</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>56.94306717106363</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>126.0821897629705</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>182.017508342976</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.166261194686406</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>45.38463668251737</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>48.1056061726357</v>
+        <v>240.7280987119441</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>88.50170636368969</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>100.6683154445386</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>89.54312379457411</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>354.7101519143957</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7308605730627</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>20.72114122105287</v>
+        <v>176.8008973295441</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>222.1295140707988</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>100.6683154445381</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>225.3130696502447</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>41.666842353276</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>86.1550019640076</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>176.8008973295434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>8.86291832287634</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>343.0587526406372</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.1070334262686</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22752,16 +22752,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>377.9951275246317</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,22 +22865,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>92.0478645482257</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>167.6479590981108</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -22998,16 +22998,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,7 +23080,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.86561496040835</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23229,25 +23229,25 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.22614758929</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.4582494344138</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>151.7906678184092</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>157.8315260226345</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.46972714718605</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>131.1525607327513</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>123.0922837702942</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>93.70790854588851</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>58.35886639452332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>99.59766369738068</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>311.9040563255573</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>114.6457227551668</v>
       </c>
       <c r="Y14" t="n">
-        <v>274.158364229073</v>
+        <v>131.1525607327513</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>150.5010287003897</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23706,22 +23706,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>53.86035808791215</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>60.69561706280197</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>31.43762041328873</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>273.0899918378022</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>361.9921321215585</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>80.6056443774154</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23940,25 +23940,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>139.4535784033688</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>292.8837075031371</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.5518658331457</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24183,16 +24183,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>62.72488485080322</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>60.69561706280189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>160.6469143664195</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>80.84134947006612</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24414,22 +24414,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>31.93087845973267</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>40.35184357388346</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>30.25506644037938</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>129.4757532549702</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.3199274035755</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>105.6366771917568</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>83.85981175770928</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>101.0424734933203</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24891,19 +24891,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>58.3588663945234</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.41240208519693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>98.7175781055567</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>46.52880881771216</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>92.52657668302425</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.358415375355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>251.6373686694127</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>295.3375181669284</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25365,19 +25365,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>31.93087845973267</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>58.35886639452332</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>233.1122812188531</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25411,7 +25411,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.841258472604125</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>122.5635772862178</v>
       </c>
       <c r="H40" t="n">
         <v>152.7120966692326</v>
@@ -25605,19 +25605,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>60.69561706280189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.54070998871953</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25684,19 +25684,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>266.3097394895691</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>17.72924970116043</v>
+        <v>141.635088775012</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>230.2966335467366</v>
       </c>
       <c r="H44" t="n">
         <v>315.0408840752156</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>59.08015067874413</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>133.8110019438424</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>160.2389898786333</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836519.6495866911</v>
+        <v>549252.2745108757</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836519.6495866912</v>
+        <v>549252.2745108758</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.404280959</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095899</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>95642.40428095899</v>
       </c>
       <c r="E2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="F2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="G2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="H2" t="n">
         <v>237303.5238233911</v>
@@ -26337,7 +26337,7 @@
         <v>237303.5238233911</v>
       </c>
       <c r="J2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="K2" t="n">
         <v>237303.5238233911</v>
@@ -26346,13 +26346,13 @@
         <v>237303.5238233911</v>
       </c>
       <c r="M2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="N2" t="n">
         <v>237303.5238233911</v>
       </c>
       <c r="O2" t="n">
-        <v>237303.523823391</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="P2" t="n">
         <v>237303.5238233911</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>539786.465644841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>110641.5683420766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>11546.91810999092</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664028</v>
+        <v>52570.38263440533</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>97145.06106897154</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753457</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="E4" t="n">
+        <v>6590.83831383142</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6590.838313831422</v>
+      </c>
+      <c r="G4" t="n">
         <v>36133.96051511372</v>
       </c>
-      <c r="F4" t="n">
-        <v>36133.96051511372</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>36133.96051511371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36133.96051511372</v>
       </c>
       <c r="I4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="K4" t="n">
         <v>36133.96051511373</v>
@@ -26453,13 +26453,13 @@
         <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="P4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511373</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26502,16 +26502,16 @@
         <v>52990.47783747559</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58725.17681781855</v>
+        <v>7110.878329429226</v>
       </c>
       <c r="C6" t="n">
-        <v>22044.25471372921</v>
+        <v>21900.58433367343</v>
       </c>
       <c r="D6" t="n">
-        <v>22044.25471372926</v>
+        <v>21900.58433367342</v>
       </c>
       <c r="E6" t="n">
-        <v>-459046.0930609638</v>
+        <v>-415017.4263986072</v>
       </c>
       <c r="F6" t="n">
-        <v>142484.5114631567</v>
+        <v>124769.0392462338</v>
       </c>
       <c r="G6" t="n">
-        <v>142484.5114631567</v>
+        <v>36968.05972796078</v>
       </c>
       <c r="H6" t="n">
-        <v>142484.5114631566</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="I6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700372</v>
       </c>
       <c r="J6" t="n">
-        <v>79424.56886405044</v>
+        <v>136062.7099600464</v>
       </c>
       <c r="K6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="L6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="M6" t="n">
-        <v>38380.23689675387</v>
+        <v>95039.24543563195</v>
       </c>
       <c r="N6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="O6" t="n">
-        <v>142484.5114631566</v>
+        <v>50464.56700106571</v>
       </c>
       <c r="P6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26822,16 +26822,16 @@
         <v>658.7614942451607</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>44.13217237922871</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675015</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31925,7 +31925,7 @@
         <v>124.3381075790241</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M13" t="n">
         <v>167.7591540676927</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
         <v>140.7360160012659</v>
@@ -35421,16 +35421,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>95.82994420832314</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6268117378475</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>237.0645776790775</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>346.5197741855617</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>172.3453030244155</v>
       </c>
       <c r="Q14" t="n">
         <v>35.33749497130819</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6268117378475</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>163.2896405180025</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>23.61499856173979</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
@@ -35895,10 +35895,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>410.1670120247334</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M18" t="n">
-        <v>349.2738770933425</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>619.6093268828263</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>108.2151639002946</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040863</v>
@@ -36129,19 +36129,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>410.1670120247334</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.13215440577663</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>611.6637136654638</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N23" t="n">
         <v>633.6441091513602</v>
@@ -36375,10 +36375,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.33749497130819</v>
+        <v>136.6172349850794</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
@@ -36454,10 +36454,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472423</v>
+        <v>79.90967444578735</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K26" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M26" t="n">
-        <v>188.5852654802098</v>
+        <v>439.3161260532729</v>
       </c>
       <c r="N26" t="n">
-        <v>410.7784365939671</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
         <v>552.6880856233105</v>
@@ -36615,7 +36615,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q26" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>229.4160469348626</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>257.6064425777956</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
@@ -36694,7 +36694,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K29" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>266.8182057642364</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M29" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O29" t="n">
-        <v>171.8879043605652</v>
+        <v>353.9054127035411</v>
       </c>
       <c r="P29" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>23.61499856174024</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K32" t="n">
         <v>407.5425384040863</v>
@@ -37077,7 +37077,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M32" t="n">
-        <v>188.5852654802098</v>
+        <v>233.9699021627271</v>
       </c>
       <c r="N32" t="n">
         <v>196.2971847393761</v>
@@ -37089,7 +37089,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>248.7689815793677</v>
+        <v>441.3914741186761</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927643</v>
@@ -37308,16 +37308,16 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
-        <v>171.8988321966113</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>289.2535809247484</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
         <v>171.8879043605652</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
-        <v>157.833850727258</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
         <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>515.833700064659</v>
       </c>
       <c r="P36" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>447.0280453124388</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748672</v>
@@ -37633,16 +37633,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>221.3845166277849</v>
+        <v>377.4642727362761</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L41" t="n">
-        <v>558.3972305517163</v>
+        <v>362.8655300720647</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
-        <v>272.5562198051032</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K42" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>406.6235104124718</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>638.0987989730422</v>
+        <v>230.2521078334858</v>
       </c>
       <c r="N44" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>198.0078557514081</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
         <v>247.6524856312129</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>245.0916242622273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>509.4561008748672</v>
+        <v>147.4786738942844</v>
       </c>
       <c r="M45" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
